--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4014826.410790111</v>
+        <v>4010813.80077612</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.81578986397487</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>169.9270214153721</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>100.6473311491943</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>279.3751023006589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>120.7389995830104</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.23490948286015</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>228.0656025585482</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.8431935752547</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.8097232340286</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>98.76492394485754</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695622</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>275.5575118490396</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>78.14939830226164</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>24.83266606353155</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.4684961233934</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.2700607443044</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.41770597126623</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.72279572932656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>19.86507844888254</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>12.96996784159862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>584.6815723082743</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>577.7360715590709</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559527</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559527</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1514.348043559527</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535339</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559527</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271522</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.08481855127</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.819119944519</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1006.819119944519</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>595.8332151549118</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.8289708570296</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>373.8289708570296</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>373.8289708570296</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>225.9158772746365</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>225.9158772746365</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1827.531998649243</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1605.765383218769</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1316.662516344412</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1061.978028138525</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828446</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.044932795071</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.055381897054</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535235</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>251.5626541092259</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249848</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876697</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3025.224490384405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>2856.288307456498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874105</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650997</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305902</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328843</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430194</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3388.154264430194</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3206.872955214645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6229,19 +6229,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,61 +6454,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,10 +6548,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7592298206043</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>129.5921236250085</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246296</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3802915967227</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>551.263652184387</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>403.3505586019938</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F37" t="n">
-        <v>256.4606111040835</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>113.8823988549239</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>363.7369613277355</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>363.7369613277355</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>196.5408620426154</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7490,13 +7490,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
         <v>716.6687843969308</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773688</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>264.0500279773688</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,10 +7733,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951538</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>10.9654864875514</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>70.46607471595071</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7828069546808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.11615722870144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.31459260779042</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>38.5977558415268</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>626760.3187684342</v>
+        <v>626760.3187684343</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815718</v>
+      </c>
+      <c r="C4" t="n">
         <v>90964.01098815711</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90964.01098815704</v>
       </c>
       <c r="D4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680575</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680577</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680586</v>
@@ -26484,10 +26484,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706600.9274128597</v>
+        <v>-706600.9274128592</v>
       </c>
       <c r="C6" t="n">
+        <v>622143.8183147324</v>
+      </c>
+      <c r="D6" t="n">
         <v>622143.8183147328</v>
       </c>
-      <c r="D6" t="n">
-        <v>622143.8183147329</v>
-      </c>
       <c r="E6" t="n">
-        <v>368834.6318419378</v>
+        <v>368487.2525875811</v>
       </c>
       <c r="F6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949365</v>
       </c>
       <c r="G6" t="n">
-        <v>694247.0936492932</v>
+        <v>693899.7143949361</v>
       </c>
       <c r="H6" t="n">
-        <v>694247.0936492932</v>
+        <v>693899.7143949361</v>
       </c>
       <c r="I6" t="n">
-        <v>694247.0936492928</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="J6" t="n">
-        <v>476715.8912520158</v>
+        <v>476368.5119976589</v>
       </c>
       <c r="K6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949361</v>
       </c>
       <c r="L6" t="n">
-        <v>694247.0936492935</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="M6" t="n">
-        <v>609192.065713781</v>
+        <v>608844.6864594244</v>
       </c>
       <c r="N6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="O6" t="n">
-        <v>694247.0936492934</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="P6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949362</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.9180517995057</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>240.9947042380814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>151.4903121746337</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.5552677716029</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.8898480104181</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>165.4728386226025</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.3497438692346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>154.6682391049324</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>223.0785320781987</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8.216085024999671</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>91.00410138658435</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.491860957346714e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.738519058854523e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510266</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328816</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>139.5228722182819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>297.1808238847165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,13 +33268,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34210,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,13 +34453,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366964</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.3582339884371</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>8.181160134948627</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3393849103575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4010813.80077612</v>
+        <v>4012574.331078907</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>102.0660356638756</v>
       </c>
       <c r="G2" t="n">
-        <v>169.9270214153721</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.48322303634141</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>100.6473311491943</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>17.35112070699284</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699488</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.65430578147793</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>120.7389995830104</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.0656025585482</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>342.2900945196225</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>98.76492394485754</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>90.14863908058098</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>19.86507844888254</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4309,73 +4309,73 @@
         <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150248</v>
+        <v>942.9472709150239</v>
       </c>
       <c r="D2" t="n">
-        <v>584.6815723082743</v>
+        <v>584.6815723082734</v>
       </c>
       <c r="E2" t="n">
-        <v>584.6815723082743</v>
+        <v>584.6815723082734</v>
       </c>
       <c r="F2" t="n">
-        <v>577.7360715590709</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919557</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8037095364738</v>
+        <v>718.3439163053874</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>718.3439163053874</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>568.2272768930517</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>420.3141833106586</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764912</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V4" t="n">
-        <v>1033.244753510244</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="W4" t="n">
-        <v>1033.244753510244</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X4" t="n">
-        <v>1033.244753510244</v>
+        <v>1120.784960279157</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.4521743667135</v>
+        <v>899.9923811356272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2065.11022283525</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1337.882007288088</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>952.0937546898438</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>541.1078499002363</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>126.0353997452327</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2841.849394875184</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2451.710062899372</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1842.795249319322</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="U7" t="n">
-        <v>1805.335962651109</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.651474445222</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W7" t="n">
-        <v>1261.234304408261</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.244753510244</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>751.8401858057883</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
         <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796417</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1827.531998649243</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1605.765383218769</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1316.662516344412</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1061.978028138525</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>772.5608581015648</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>772.5608581015648</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5080,7 +5080,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5123,19 +5123,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,19 +6253,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>255.5942300127259</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>113.8823988549239</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7788,19 +7788,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>196.0358353086632</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>61.40075786968299</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616338.9411377262</v>
+        <v>616338.9411377263</v>
       </c>
     </row>
     <row r="6">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900061</v>
@@ -26352,10 +26352,10 @@
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815727</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815723</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26432,7 +26432,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26441,10 +26441,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680586</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706600.9274128592</v>
+        <v>-706600.9274128589</v>
       </c>
       <c r="C6" t="n">
-        <v>622143.8183147324</v>
+        <v>622143.8183147329</v>
       </c>
       <c r="D6" t="n">
-        <v>622143.8183147328</v>
+        <v>622143.8183147323</v>
       </c>
       <c r="E6" t="n">
-        <v>368487.2525875811</v>
+        <v>368799.8939165027</v>
       </c>
       <c r="F6" t="n">
-        <v>693899.7143949365</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="G6" t="n">
-        <v>693899.7143949361</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="H6" t="n">
-        <v>693899.7143949361</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="I6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="J6" t="n">
-        <v>476368.5119976589</v>
+        <v>476681.1533265804</v>
       </c>
       <c r="K6" t="n">
-        <v>693899.7143949361</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="L6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="M6" t="n">
-        <v>608844.6864594244</v>
+        <v>609157.3277883456</v>
       </c>
       <c r="N6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="O6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="P6" t="n">
-        <v>693899.7143949362</v>
+        <v>694212.3557238576</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>304.8100100778358</v>
       </c>
       <c r="G2" t="n">
-        <v>240.9947042380814</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>105.9378249865898</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>151.4903121746337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>277.2566436803277</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104181</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>106.114719549964</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>165.4728386226025</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.6682391049324</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>68.63163113383098</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>91.00410138658435</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,10 +31123,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
@@ -31135,34 +31135,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
         <v>138.9375967297389</v>
@@ -31214,31 +31214,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
         <v>319.757372170198</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
